--- a/data/mcdm_data_2.xlsx
+++ b/data/mcdm_data_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olgunaydin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077C4434-A2FE-6945-A2ED-40C0901D8B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6A03BF-05A7-7F45-83E3-4129D0AC26F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IHDI_hesaplanan ülkeler" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>Human Development Index (HDI)</t>
   </si>
@@ -35,6 +35,477 @@
   </si>
   <si>
     <t>Inequality-adjusted income index</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Korea (Republic of)</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Hong Kong, China (SAR)</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>Moldova (Republic of)</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Palestine, State of</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Eswatini (Kingdom of)</t>
+  </si>
+  <si>
+    <t>Tanzania (United Republic of)</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Congo (Democratic Republic of the)</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -112,13 +583,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -437,2680 +911,3151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849EAF1C-2B6B-49BA-BD2B-188A7C3994D4}">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="70" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.95899999999999996</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>0.91500000000000004</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.9454334133194956</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>0.93780235679637947</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0.86439586329700391</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
         <v>0.96099999999999997</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>0.90800000000000003</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.94810366166845628</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>0.91168243404478932</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.86583901016516163</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
         <v>0.94799999999999995</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>0.89800000000000002</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.91584882524735001</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0.90868088866057839</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.86999746028966107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>0.89400000000000002</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.95386773274403258</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0.90178962446637512</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.82967169702712784</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
         <v>0.94</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>0.89</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.92795414887714933</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>0.90667729337884451</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0.838849477728277</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
         <v>0.94499999999999995</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>0.88600000000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.92685716092200954</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>0.85597717644097338</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0.87737039999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
         <v>0.94699999999999995</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>0.88500000000000001</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.94368242154409543</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>0.88472679537412768</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>0.83018750044341172</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
         <v>0.94199999999999995</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>0.88300000000000001</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.90098046037128487</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>0.91711002696495592</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0.83326199777864529</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
         <v>0.94099999999999995</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>0.878</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>0.91739126069841692</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>0.87464345141016164</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>0.84214281513899847</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
         <v>0.91800000000000004</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>0.878</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>0.90803262394496898</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>0.89831261965970532</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>0.8289966200436174</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
         <v>0.95099999999999996</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>0.876</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>0.96553503940219609</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>0.89597767854119148</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>0.77606005579120207</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
         <v>0.93700000000000006</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>0.874</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>0.9178793045441358</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>0.85890639267048952</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>0.84809508783813548</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
         <v>0.93700000000000006</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>0.86499999999999999</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>0.92071572440471394</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>0.91434902112155814</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>0.76836378682157602</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>0.86</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>0.92436084407067531</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>0.89349175512598511</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>0.77017816841456765</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
         <v>0.91600000000000004</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>0.85099999999999998</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>0.91652459713986079</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>0.83170011855756432</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>0.80754791865383646</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
         <v>0.93</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="1">
         <v>0.85</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>0.92622731411048276</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>0.7944577039863453</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>0.83347799999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
         <v>0.92900000000000005</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="1">
         <v>0.85</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>0.89792779718301186</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>0.9012768105149771</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>0.75762423366545961</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
+    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
         <v>0.92500000000000004</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>0.85</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>0.97165705511025857</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>0.82918791669300884</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>0.76119983216224962</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+    <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
         <v>0.88900000000000001</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
         <v>0.85</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>0.86048449809077421</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>0.86848013782742361</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>0.82130556259435883</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+    <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
         <v>0.91800000000000004</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="1">
         <v>0.84899999999999998</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>0.94951495837278699</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>0.82932655121112864</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>0.775943239282194</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
+    <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
         <v>0.92500000000000004</v>
       </c>
-      <c r="B22" s="1">
+      <c r="C22" s="1">
         <v>0.83799999999999997</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>0.95225699066477365</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>0.79862808240283878</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>0.77257037858065691</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
+    <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1">
         <v>0.89</v>
       </c>
-      <c r="B23" s="1">
+      <c r="C23" s="1">
         <v>0.82899999999999996</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>0.85341277505701585</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>0.87595903465653735</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>0.76295841946532617</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
+    <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1">
         <v>0.95199999999999996</v>
       </c>
-      <c r="B24" s="1">
+      <c r="C24" s="1">
         <v>0.82799999999999996</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>0.97944404839999999</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>0.80165487441999195</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>0.72406430160865232</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
+    <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1">
         <v>0.90300000000000002</v>
       </c>
-      <c r="B25" s="1">
+      <c r="C25" s="1">
         <v>0.82499999999999996</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>0.92482576063907684</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>0.76242720207025283</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>0.79707650942067576</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
+    <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1">
         <v>0.92100000000000004</v>
       </c>
-      <c r="B26" s="1">
+      <c r="C26" s="1">
         <v>0.81899999999999995</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>0.82764541473780462</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>0.8834214413506325</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>0.7507638338166196</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
+    <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="B27" s="1">
+      <c r="C27" s="1">
         <v>0.81899999999999995</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>0.91669346059918633</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>0.76848106903123381</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>0.78100602427109456</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
+    <row r="28" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1">
         <v>0.93899999999999995</v>
       </c>
-      <c r="B28" s="1">
+      <c r="C28" s="1">
         <v>0.81699999999999995</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>0.94362080141061044</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>0.77079170989103363</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>0.75039599359999998</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
+    <row r="29" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1">
         <v>0.876</v>
       </c>
-      <c r="B29" s="1">
+      <c r="C29" s="1">
         <v>0.81599999999999995</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>0.83446883210402611</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>0.84460277018605268</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>0.77006341811817747</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
+    <row r="30" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1">
         <v>0.91900000000000004</v>
       </c>
-      <c r="B30" s="1">
+      <c r="C30" s="1">
         <v>0.81499999999999995</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>0.9271360285541369</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>0.83482305017644454</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>0.70001283470465914</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
+    <row r="31" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1">
         <v>0.84799999999999998</v>
       </c>
-      <c r="B31" s="1">
+      <c r="C31" s="1">
         <v>0.80300000000000005</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>0.80512707213590373</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>0.81895137678245622</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>0.78660704284827698</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
+    <row r="32" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1">
         <v>0.875</v>
       </c>
-      <c r="B32" s="1">
+      <c r="C32" s="1">
         <v>0.8</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>0.79078429223182134</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>0.87002052645835259</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>0.74404859347461938</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
+    <row r="33" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1">
         <v>0.85799999999999998</v>
       </c>
-      <c r="B33" s="1">
+      <c r="C33" s="1">
         <v>0.79700000000000004</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>0.85257168157769214</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>0.79110498766733039</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>0.75055991207630535</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="1">
+    <row r="34" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1">
         <v>0.86299999999999999</v>
       </c>
-      <c r="B34" s="1">
+      <c r="C34" s="1">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>0.78960635401482193</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>0.87196000433214749</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>0.72237875248822403</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
+    <row r="35" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1">
         <v>0.84599999999999997</v>
       </c>
-      <c r="B35" s="1">
+      <c r="C35" s="1">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>0.80575429817981759</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>0.80227359889952987</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>0.76744222602370471</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
+    <row r="36" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1">
         <v>0.89500000000000002</v>
       </c>
-      <c r="B36" s="1">
+      <c r="C36" s="1">
         <v>0.79100000000000004</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1">
         <v>0.94045986360542788</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>0.72743292817985594</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>0.72433821227105755</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
+    <row r="37" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1">
         <v>0.88700000000000001</v>
       </c>
-      <c r="B37" s="1">
+      <c r="C37" s="1">
         <v>0.79100000000000004</v>
       </c>
-      <c r="C37" s="1">
+      <c r="D37" s="1">
         <v>0.89137053358769625</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
         <v>0.77695797380257281</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>0.71398162391317344</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
+    <row r="38" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1">
         <v>0.90500000000000003</v>
       </c>
-      <c r="B38" s="1">
+      <c r="C38" s="1">
         <v>0.78800000000000003</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D38" s="1">
         <v>0.94143407771959853</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>0.71727821010507309</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>0.72514030476130609</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
+    <row r="39" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1">
         <v>0.86599999999999999</v>
       </c>
-      <c r="B39" s="1">
+      <c r="C39" s="1">
         <v>0.77300000000000002</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D39" s="1">
         <v>0.90913718083151185</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>0.68500796933282049</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>0.74113876249658261</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
+    <row r="40" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1">
         <v>0.80800000000000005</v>
       </c>
-      <c r="B40" s="1">
+      <c r="C40" s="1">
         <v>0.76500000000000001</v>
       </c>
-      <c r="C40" s="1">
+      <c r="D40" s="1">
         <v>0.77971559358144749</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>0.8032722652600226</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>0.7150543007899699</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
+    <row r="41" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1">
         <v>0.83199999999999996</v>
       </c>
-      <c r="B41" s="1">
+      <c r="C41" s="1">
         <v>0.75600000000000001</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
         <v>0.84693053009893149</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>0.7603568903026322</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>0.67004678373952808</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
+    <row r="42" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="1">
         <v>0.81100000000000005</v>
       </c>
-      <c r="B42" s="1">
+      <c r="C42" s="1">
         <v>0.755</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="1">
         <v>0.70421846604664751</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>0.82260123011717523</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>0.74195693429433651</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="1">
+    <row r="43" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="1">
         <v>0.82199999999999995</v>
       </c>
-      <c r="B43" s="1">
+      <c r="C43" s="1">
         <v>0.751</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D43" s="1">
         <v>0.71812908841027145</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
         <v>0.84617807735631101</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>0.69721850966962273</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="1">
+    <row r="44" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="1">
         <v>0.82099999999999995</v>
       </c>
-      <c r="B44" s="1">
+      <c r="C44" s="1">
         <v>0.73299999999999998</v>
       </c>
-      <c r="C44" s="1">
+      <c r="D44" s="1">
         <v>0.79279686476232925</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>0.72920716143488318</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>0.68165021815064741</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A45" s="1">
+    <row r="45" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="1">
         <v>0.77300000000000002</v>
       </c>
-      <c r="B45" s="1">
+      <c r="C45" s="1">
         <v>0.72599999999999998</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D45" s="1">
         <v>0.74833108167829288</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>0.75819913198901712</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>0.67527883604413663</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
+    <row r="46" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="1">
         <v>0.85499999999999998</v>
       </c>
-      <c r="B46" s="1">
+      <c r="C46" s="1">
         <v>0.72199999999999998</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>0.86231776136734628</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <v>0.73191721093423845</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>0.59632785894360041</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="1">
+    <row r="47" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="1">
         <v>0.84199999999999997</v>
       </c>
-      <c r="B47" s="1">
+      <c r="C47" s="1">
         <v>0.72</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D47" s="1">
         <v>0.78717701076347701</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>0.81786036341478319</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>0.58035906931513548</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="1">
+    <row r="48" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="1">
         <v>0.80200000000000005</v>
       </c>
-      <c r="B48" s="1">
+      <c r="C48" s="1">
         <v>0.72</v>
       </c>
-      <c r="C48" s="1">
+      <c r="D48" s="1">
         <v>0.79947321878774269</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="1">
         <v>0.72295050652115322</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>0.64679030671015036</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="1">
+    <row r="49" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="1">
         <v>0.83799999999999997</v>
       </c>
-      <c r="B49" s="1">
+      <c r="C49" s="1">
         <v>0.71699999999999997</v>
       </c>
-      <c r="C49" s="1">
+      <c r="D49" s="1">
         <v>0.8114799721804371</v>
       </c>
-      <c r="D49" s="1">
+      <c r="E49" s="1">
         <v>0.68029665735468237</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>0.66667329476080661</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
+    <row r="50" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="1">
         <v>0.76700000000000002</v>
       </c>
-      <c r="B50" s="1">
+      <c r="C50" s="1">
         <v>0.71099999999999997</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D50" s="1">
         <v>0.68470617864137762</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="1">
         <v>0.77453820137935248</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>0.67675827247782838</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="1">
+    <row r="51" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="1">
         <v>0.80900000000000005</v>
       </c>
-      <c r="B51" s="1">
+      <c r="C51" s="1">
         <v>0.71</v>
       </c>
-      <c r="C51" s="1">
+      <c r="D51" s="1">
         <v>0.80666184241902561</v>
       </c>
-      <c r="D51" s="1">
+      <c r="E51" s="1">
         <v>0.71675641270233559</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>0.61901784471492061</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
+    <row r="52" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="1">
         <v>0.79600000000000004</v>
       </c>
-      <c r="B52" s="1">
+      <c r="C52" s="1">
         <v>0.71</v>
       </c>
-      <c r="C52" s="1">
+      <c r="D52" s="1">
         <v>0.80966817123495938</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="1">
         <v>0.68165002164845256</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
         <v>0.64930963723040813</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A53" s="1">
+    <row r="53" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="1">
         <v>0.81599999999999995</v>
       </c>
-      <c r="B53" s="1">
+      <c r="C53" s="1">
         <v>0.70799999999999996</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D53" s="1">
         <v>0.75085322039024027</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="1">
         <v>0.69849887778432518</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>0.67603016926501525</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A54" s="1">
+    <row r="54" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="1">
         <v>0.80200000000000005</v>
       </c>
-      <c r="B54" s="1">
+      <c r="C54" s="1">
         <v>0.70599999999999996</v>
       </c>
-      <c r="C54" s="1">
+      <c r="D54" s="1">
         <v>0.7428027279341638</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="1">
         <v>0.83592060862819373</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>0.56622879068392074</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A55" s="1">
+    <row r="55" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="1">
         <v>0.79500000000000004</v>
       </c>
-      <c r="B55" s="1">
+      <c r="C55" s="1">
         <v>0.70099999999999996</v>
       </c>
-      <c r="C55" s="1">
+      <c r="D55" s="1">
         <v>0.75561023621588586</v>
       </c>
-      <c r="D55" s="1">
+      <c r="E55" s="1">
         <v>0.72100948636238782</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="1">
         <v>0.6328918861618229</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A56" s="1">
+    <row r="56" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="1">
         <v>0.75900000000000001</v>
       </c>
-      <c r="B56" s="1">
+      <c r="C56" s="1">
         <v>0.68799999999999994</v>
       </c>
-      <c r="C56" s="1">
+      <c r="D56" s="1">
         <v>0.7443294287278126</v>
       </c>
-      <c r="D56" s="1">
+      <c r="E56" s="1">
         <v>0.72025288643333951</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>0.60855661250617321</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A57" s="1">
+    <row r="57" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="1">
         <v>0.8</v>
       </c>
-      <c r="B57" s="1">
+      <c r="C57" s="1">
         <v>0.68600000000000005</v>
       </c>
-      <c r="C57" s="1">
+      <c r="D57" s="1">
         <v>0.84126828095489614</v>
       </c>
-      <c r="D57" s="1">
+      <c r="E57" s="1">
         <v>0.60792401531085594</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="1">
         <v>0.63023868370356306</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A58" s="1">
+    <row r="58" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="1">
         <v>0.77400000000000002</v>
       </c>
-      <c r="B58" s="1">
+      <c r="C58" s="1">
         <v>0.68600000000000005</v>
       </c>
-      <c r="C58" s="1">
+      <c r="D58" s="1">
         <v>0.75811961269233141</v>
       </c>
-      <c r="D58" s="1">
+      <c r="E58" s="1">
         <v>0.72261964064970019</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>0.59032261698927257</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A59" s="1">
+    <row r="59" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="1">
         <v>0.77</v>
       </c>
-      <c r="B59" s="1">
+      <c r="C59" s="1">
         <v>0.68600000000000005</v>
       </c>
-      <c r="C59" s="1">
+      <c r="D59" s="1">
         <v>0.79175958295616577</v>
       </c>
-      <c r="D59" s="1">
+      <c r="E59" s="1">
         <v>0.65919461975758742</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>0.61913864805455276</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A60" s="1">
+    <row r="60" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="1">
         <v>0.745</v>
       </c>
-      <c r="B60" s="1">
+      <c r="C60" s="1">
         <v>0.68500000000000005</v>
       </c>
-      <c r="C60" s="1">
+      <c r="D60" s="1">
         <v>0.67347757994815005</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E60" s="1">
         <v>0.70045125625489357</v>
       </c>
-      <c r="E60" s="1">
+      <c r="F60" s="1">
         <v>0.68283612906791502</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A61" s="1">
+    <row r="61" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="1">
         <v>0.78</v>
       </c>
-      <c r="B61" s="1">
+      <c r="C61" s="1">
         <v>0.67700000000000005</v>
       </c>
-      <c r="C61" s="1">
+      <c r="D61" s="1">
         <v>0.81689307728781912</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <v>0.62591297740016627</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>0.60622384017074182</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="1">
+    <row r="62" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="1">
         <v>0.78200000000000003</v>
       </c>
-      <c r="B62" s="1">
+      <c r="C62" s="1">
         <v>0.67600000000000005</v>
       </c>
-      <c r="C62" s="1">
+      <c r="D62" s="1">
         <v>0.82257027973600605</v>
       </c>
-      <c r="D62" s="1">
+      <c r="E62" s="1">
         <v>0.66326605898704949</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
         <v>0.56696901567664759</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A63" s="1">
+    <row r="63" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="1">
         <v>0.80200000000000005</v>
       </c>
-      <c r="B63" s="1">
+      <c r="C63" s="1">
         <v>0.66600000000000004</v>
       </c>
-      <c r="C63" s="1">
+      <c r="D63" s="1">
         <v>0.73628869547307318</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E63" s="1">
         <v>0.60055472525393139</v>
       </c>
-      <c r="E63" s="1">
+      <c r="F63" s="1">
         <v>0.66675322629274314</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A64" s="1">
+    <row r="64" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="1">
         <v>0.745</v>
       </c>
-      <c r="B64" s="1">
+      <c r="C64" s="1">
         <v>0.66600000000000004</v>
       </c>
-      <c r="C64" s="1">
+      <c r="D64" s="1">
         <v>0.71579421168222401</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E64" s="1">
         <v>0.78997040212118208</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>0.52151618188443549</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A65" s="1">
+    <row r="65" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="1">
         <v>0.80900000000000005</v>
       </c>
-      <c r="B65" s="1">
+      <c r="C65" s="1">
         <v>0.66400000000000003</v>
       </c>
-      <c r="C65" s="1">
+      <c r="D65" s="1">
         <v>0.82559378550802731</v>
       </c>
-      <c r="D65" s="1">
+      <c r="E65" s="1">
         <v>0.66589183016078268</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
         <v>0.53278941137724101</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A66" s="1">
+    <row r="66" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="1">
         <v>0.78500000000000003</v>
       </c>
-      <c r="B66" s="1">
+      <c r="C66" s="1">
         <v>0.66100000000000003</v>
       </c>
-      <c r="C66" s="1">
+      <c r="D66" s="1">
         <v>0.71459822203526091</v>
       </c>
-      <c r="D66" s="1">
+      <c r="E66" s="1">
         <v>0.68144281235079907</v>
       </c>
-      <c r="E66" s="1">
+      <c r="F66" s="1">
         <v>0.59278223496256477</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A67" s="1">
+    <row r="67" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="1">
         <v>0.79</v>
       </c>
-      <c r="B67" s="1">
+      <c r="C67" s="1">
         <v>0.65700000000000003</v>
       </c>
-      <c r="C67" s="1">
+      <c r="D67" s="1">
         <v>0.81472439360178961</v>
       </c>
-      <c r="D67" s="1">
+      <c r="E67" s="1">
         <v>0.72247805541703314</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67" s="1">
         <v>0.48282492654200926</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A68" s="1">
+    <row r="68" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="1">
         <v>0.76800000000000002</v>
       </c>
-      <c r="B68" s="1">
+      <c r="C68" s="1">
         <v>0.65100000000000002</v>
       </c>
-      <c r="C68" s="1">
+      <c r="D68" s="1">
         <v>0.84841487328793419</v>
       </c>
-      <c r="D68" s="1">
+      <c r="E68" s="1">
         <v>0.57300683926357332</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68" s="1">
         <v>0.5665015861263647</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A69" s="1">
+    <row r="69" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="1">
         <v>0.73899999999999999</v>
       </c>
-      <c r="B69" s="1">
+      <c r="C69" s="1">
         <v>0.64400000000000002</v>
       </c>
-      <c r="C69" s="1">
+      <c r="D69" s="1">
         <v>0.71094063168800847</v>
       </c>
-      <c r="D69" s="1">
+      <c r="E69" s="1">
         <v>0.64346465032501976</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69" s="1">
         <v>0.58492352540677806</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A70" s="1">
+    <row r="70" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A70" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="1">
         <v>0.80500000000000005</v>
       </c>
-      <c r="B70" s="1">
+      <c r="C70" s="1">
         <v>0.64</v>
       </c>
-      <c r="C70" s="1">
+      <c r="D70" s="1">
         <v>0.77097001436771073</v>
       </c>
-      <c r="D70" s="1">
+      <c r="E70" s="1">
         <v>0.63286599081115924</v>
       </c>
-      <c r="E70" s="1">
+      <c r="F70" s="1">
         <v>0.53626003398903455</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A71" s="1">
+    <row r="71" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="1">
         <v>0.76200000000000001</v>
       </c>
-      <c r="B71" s="1">
+      <c r="C71" s="1">
         <v>0.63500000000000001</v>
       </c>
-      <c r="C71" s="1">
+      <c r="D71" s="1">
         <v>0.73619021291845987</v>
       </c>
-      <c r="D71" s="1">
+      <c r="E71" s="1">
         <v>0.64850299222628904</v>
       </c>
-      <c r="E71" s="1">
+      <c r="F71" s="1">
         <v>0.53523566635347419</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A72" s="1">
+    <row r="72" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="1">
         <v>0.69199999999999995</v>
       </c>
-      <c r="B72" s="1">
+      <c r="C72" s="1">
         <v>0.627</v>
       </c>
-      <c r="C72" s="1">
+      <c r="D72" s="1">
         <v>0.68826338650152097</v>
       </c>
-      <c r="D72" s="1">
+      <c r="E72" s="1">
         <v>0.72058666313397202</v>
       </c>
-      <c r="E72" s="1">
+      <c r="F72" s="1">
         <v>0.49739364488594195</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A73" s="1">
+    <row r="73" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A73" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="1">
         <v>0.75800000000000001</v>
       </c>
-      <c r="B73" s="1">
+      <c r="C73" s="1">
         <v>0.621</v>
       </c>
-      <c r="C73" s="1">
+      <c r="D73" s="1">
         <v>0.69913852801241427</v>
       </c>
-      <c r="D73" s="1">
+      <c r="E73" s="1">
         <v>0.62311983386168002</v>
       </c>
-      <c r="E73" s="1">
+      <c r="F73" s="1">
         <v>0.55006298049356361</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A74" s="1">
+    <row r="74" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="1">
         <v>0.745</v>
       </c>
-      <c r="B74" s="1">
+      <c r="C74" s="1">
         <v>0.61899999999999999</v>
       </c>
-      <c r="C74" s="1">
+      <c r="D74" s="1">
         <v>0.60658465064275691</v>
       </c>
-      <c r="D74" s="1">
+      <c r="E74" s="1">
         <v>0.72047588965887988</v>
       </c>
-      <c r="E74" s="1">
+      <c r="F74" s="1">
         <v>0.54276989169628076</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A75" s="1">
+    <row r="75" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A75" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="1">
         <v>0.76700000000000002</v>
       </c>
-      <c r="B75" s="1">
+      <c r="C75" s="1">
         <v>0.61799999999999999</v>
       </c>
-      <c r="C75" s="1">
+      <c r="D75" s="1">
         <v>0.66729563181100615</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="1">
         <v>0.60494463119943853</v>
       </c>
-      <c r="E75" s="1">
+      <c r="F75" s="1">
         <v>0.58332681849519208</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A76" s="1">
+    <row r="76" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="1">
         <v>0.72</v>
       </c>
-      <c r="B76" s="1">
+      <c r="C76" s="1">
         <v>0.61699999999999999</v>
       </c>
-      <c r="C76" s="1">
+      <c r="D76" s="1">
         <v>0.75740459643440639</v>
       </c>
-      <c r="D76" s="1">
+      <c r="E76" s="1">
         <v>0.54452096955423457</v>
       </c>
-      <c r="E76" s="1">
+      <c r="F76" s="1">
         <v>0.57008627975102211</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A77" s="1">
+    <row r="77" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="1">
         <v>0.70699999999999996</v>
       </c>
-      <c r="B77" s="1">
+      <c r="C77" s="1">
         <v>0.61299999999999999</v>
       </c>
-      <c r="C77" s="1">
+      <c r="D77" s="1">
         <v>0.72721956762414608</v>
       </c>
-      <c r="D77" s="1">
+      <c r="E77" s="1">
         <v>0.67412109810899412</v>
       </c>
-      <c r="E77" s="1">
+      <c r="F77" s="1">
         <v>0.46874972018631517</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A78" s="1">
+    <row r="78" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="1">
         <v>0.74</v>
       </c>
-      <c r="B78" s="1">
+      <c r="C78" s="1">
         <v>0.60399999999999998</v>
       </c>
-      <c r="C78" s="1">
+      <c r="D78" s="1">
         <v>0.75245181031111386</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="1">
         <v>0.6064975733696909</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="1">
         <v>0.48283436353993875</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A79" s="1">
+    <row r="79" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="1">
         <v>0.70299999999999996</v>
       </c>
-      <c r="B79" s="1">
+      <c r="C79" s="1">
         <v>0.60199999999999998</v>
       </c>
-      <c r="C79" s="1">
+      <c r="D79" s="1">
         <v>0.71658275007995065</v>
       </c>
-      <c r="D79" s="1">
+      <c r="E79" s="1">
         <v>0.5413398973054323</v>
       </c>
-      <c r="E79" s="1">
+      <c r="F79" s="1">
         <v>0.56312563513080915</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A80" s="1">
+    <row r="80" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="1">
         <v>0.68500000000000005</v>
       </c>
-      <c r="B80" s="1">
+      <c r="C80" s="1">
         <v>0.59899999999999998</v>
       </c>
-      <c r="C80" s="1">
+      <c r="D80" s="1">
         <v>0.66266782070324126</v>
       </c>
-      <c r="D80" s="1">
+      <c r="E80" s="1">
         <v>0.65911841393074855</v>
       </c>
-      <c r="E80" s="1">
+      <c r="F80" s="1">
         <v>0.4931915431636622</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A81" s="1">
+    <row r="81" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="1">
         <v>0.745</v>
       </c>
-      <c r="B81" s="1">
+      <c r="C81" s="1">
         <v>0.59799999999999998</v>
       </c>
-      <c r="C81" s="1">
+      <c r="D81" s="1">
         <v>0.7595172735444653</v>
       </c>
-      <c r="D81" s="1">
+      <c r="E81" s="1">
         <v>0.45052833225502548</v>
       </c>
-      <c r="E81" s="1">
+      <c r="F81" s="1">
         <v>0.62589355280994197</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A82" s="1">
+    <row r="82" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="1">
         <v>0.747</v>
       </c>
-      <c r="B82" s="1">
+      <c r="C82" s="1">
         <v>0.59399999999999997</v>
       </c>
-      <c r="C82" s="1">
+      <c r="D82" s="1">
         <v>0.88371494946081575</v>
       </c>
-      <c r="D82" s="1">
+      <c r="E82" s="1">
         <v>0.42058855002594658</v>
       </c>
-      <c r="E82" s="1">
+      <c r="F82" s="1">
         <v>0.56455881887385262</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A83" s="1">
+    <row r="83" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="1">
         <v>0.69099999999999995</v>
       </c>
-      <c r="B83" s="1">
+      <c r="C83" s="1">
         <v>0.59199999999999997</v>
       </c>
-      <c r="C83" s="1">
+      <c r="D83" s="1">
         <v>0.67807987027294525</v>
       </c>
-      <c r="D83" s="1">
+      <c r="E83" s="1">
         <v>0.66327509202537038</v>
       </c>
-      <c r="E83" s="1">
+      <c r="F83" s="1">
         <v>0.46223625839995558</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A84" s="1">
+    <row r="84" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="1">
         <v>0.71399999999999997</v>
       </c>
-      <c r="B84" s="1">
+      <c r="C84" s="1">
         <v>0.59099999999999997</v>
       </c>
-      <c r="C84" s="1">
+      <c r="D84" s="1">
         <v>0.59193171195675909</v>
       </c>
-      <c r="D84" s="1">
+      <c r="E84" s="1">
         <v>0.56839268348595773</v>
       </c>
-      <c r="E84" s="1">
+      <c r="F84" s="1">
         <v>0.61260376310820586</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A85" s="1">
+    <row r="85" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="1">
         <v>0.70899999999999996</v>
       </c>
-      <c r="B85" s="1">
+      <c r="C85" s="1">
         <v>0.59099999999999997</v>
       </c>
-      <c r="C85" s="1">
+      <c r="D85" s="1">
         <v>0.70914037772355076</v>
       </c>
-      <c r="D85" s="1">
+      <c r="E85" s="1">
         <v>0.63336785262136097</v>
       </c>
-      <c r="E85" s="1">
+      <c r="F85" s="1">
         <v>0.46053332295284843</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A86" s="1">
+    <row r="86" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="1">
         <v>0.752</v>
       </c>
-      <c r="B86" s="1">
+      <c r="C86" s="1">
         <v>0.58899999999999997</v>
       </c>
-      <c r="C86" s="1">
+      <c r="D86" s="1">
         <v>0.73660055809871372</v>
       </c>
-      <c r="D86" s="1">
+      <c r="E86" s="1">
         <v>0.59456683595524784</v>
       </c>
-      <c r="E86" s="1">
+      <c r="F86" s="1">
         <v>0.4675039751994316</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A87" s="1">
+    <row r="87" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="1">
         <v>0.73099999999999998</v>
       </c>
-      <c r="B87" s="1">
+      <c r="C87" s="1">
         <v>0.58799999999999997</v>
       </c>
-      <c r="C87" s="1">
+      <c r="D87" s="1">
         <v>0.74489369197791944</v>
       </c>
-      <c r="D87" s="1">
+      <c r="E87" s="1">
         <v>0.46858926432377662</v>
       </c>
-      <c r="E87" s="1">
+      <c r="F87" s="1">
         <v>0.58133969467172497</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A88" s="1">
+    <row r="88" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="1">
         <v>0.70499999999999996</v>
       </c>
-      <c r="B88" s="1">
+      <c r="C88" s="1">
         <v>0.58499999999999996</v>
       </c>
-      <c r="C88" s="1">
+      <c r="D88" s="1">
         <v>0.6349900083742045</v>
       </c>
-      <c r="D88" s="1">
+      <c r="E88" s="1">
         <v>0.55205055730438335</v>
       </c>
-      <c r="E88" s="1">
+      <c r="F88" s="1">
         <v>0.57220225769752198</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A89" s="1">
+    <row r="89" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A89" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="1">
         <v>0.71499999999999997</v>
       </c>
-      <c r="B89" s="1">
+      <c r="C89" s="1">
         <v>0.58399999999999996</v>
       </c>
-      <c r="C89" s="1">
+      <c r="D89" s="1">
         <v>0.73833543579816929</v>
       </c>
-      <c r="D89" s="1">
+      <c r="E89" s="1">
         <v>0.62525992779193218</v>
       </c>
-      <c r="E89" s="1">
+      <c r="F89" s="1">
         <v>0.43236296455401652</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A90" s="1">
+    <row r="90" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="1">
         <v>0.71699999999999997</v>
       </c>
-      <c r="B90" s="1">
+      <c r="C90" s="1">
         <v>0.58199999999999996</v>
       </c>
-      <c r="C90" s="1">
+      <c r="D90" s="1">
         <v>0.68535950623413378</v>
       </c>
-      <c r="D90" s="1">
+      <c r="E90" s="1">
         <v>0.56986482614913014</v>
       </c>
-      <c r="E90" s="1">
+      <c r="F90" s="1">
         <v>0.50604967392926881</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A91" s="1">
+    <row r="91" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="1">
         <v>0.754</v>
       </c>
-      <c r="B91" s="1">
+      <c r="C91" s="1">
         <v>0.57599999999999996</v>
       </c>
-      <c r="C91" s="1">
+      <c r="D91" s="1">
         <v>0.73048383266474004</v>
       </c>
-      <c r="D91" s="1">
+      <c r="E91" s="1">
         <v>0.59403169603875228</v>
       </c>
-      <c r="E91" s="1">
+      <c r="F91" s="1">
         <v>0.44043847042933693</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A92" s="1">
+    <row r="92" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="1">
         <v>0.69899999999999995</v>
       </c>
-      <c r="B92" s="1">
+      <c r="C92" s="1">
         <v>0.57399999999999995</v>
       </c>
-      <c r="C92" s="1">
+      <c r="D92" s="1">
         <v>0.64895153551517915</v>
       </c>
-      <c r="D92" s="1">
+      <c r="E92" s="1">
         <v>0.59660151782393878</v>
       </c>
-      <c r="E92" s="1">
+      <c r="F92" s="1">
         <v>0.48778643239984182</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A93" s="1">
+    <row r="93" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A93" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="1">
         <v>0.71499999999999997</v>
       </c>
-      <c r="B93" s="1">
+      <c r="C93" s="1">
         <v>0.55900000000000005</v>
       </c>
-      <c r="C93" s="1">
+      <c r="D93" s="1">
         <v>0.71344674364210947</v>
       </c>
-      <c r="D93" s="1">
+      <c r="E93" s="1">
         <v>0.46686228240175409</v>
       </c>
-      <c r="E93" s="1">
+      <c r="F93" s="1">
         <v>0.52549779733351365</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A94" s="1">
+    <row r="94" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A94" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="1">
         <v>0.70599999999999996</v>
       </c>
-      <c r="B94" s="1">
+      <c r="C94" s="1">
         <v>0.55400000000000005</v>
       </c>
-      <c r="C94" s="1">
+      <c r="D94" s="1">
         <v>0.56609304866537691</v>
       </c>
-      <c r="D94" s="1">
+      <c r="E94" s="1">
         <v>0.51652138034466666</v>
       </c>
-      <c r="E94" s="1">
+      <c r="F94" s="1">
         <v>0.58260240179885769</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A95" s="1">
+    <row r="95" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="1">
         <v>0.68600000000000005</v>
       </c>
-      <c r="B95" s="1">
+      <c r="C95" s="1">
         <v>0.55400000000000005</v>
       </c>
-      <c r="C95" s="1">
+      <c r="D95" s="1">
         <v>0.66667776363999787</v>
       </c>
-      <c r="D95" s="1">
+      <c r="E95" s="1">
         <v>0.42102076659258597</v>
       </c>
-      <c r="E95" s="1">
+      <c r="F95" s="1">
         <v>0.6071374042465445</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A96" s="1">
+    <row r="96" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A96" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="1">
         <v>0.69199999999999995</v>
       </c>
-      <c r="B96" s="1">
+      <c r="C96" s="1">
         <v>0.54900000000000004</v>
       </c>
-      <c r="C96" s="1">
+      <c r="D96" s="1">
         <v>0.55026623783477413</v>
       </c>
-      <c r="D96" s="1">
+      <c r="E96" s="1">
         <v>0.61990678246845043</v>
       </c>
-      <c r="E96" s="1">
+      <c r="F96" s="1">
         <v>0.48563913586030832</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A97" s="1">
+    <row r="97" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A97" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="1">
         <v>0.67500000000000004</v>
       </c>
-      <c r="B97" s="1">
+      <c r="C97" s="1">
         <v>0.54800000000000004</v>
       </c>
-      <c r="C97" s="1">
+      <c r="D97" s="1">
         <v>0.70618214458820905</v>
       </c>
-      <c r="D97" s="1">
+      <c r="E97" s="1">
         <v>0.44988036616655092</v>
       </c>
-      <c r="E97" s="1">
+      <c r="F97" s="1">
         <v>0.51736971286914912</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A98" s="1">
+    <row r="98" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A98" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="1">
         <v>0.64100000000000001</v>
       </c>
-      <c r="B98" s="1">
+      <c r="C98" s="1">
         <v>0.54100000000000004</v>
       </c>
-      <c r="C98" s="1">
+      <c r="D98" s="1">
         <v>0.58683433060685575</v>
       </c>
-      <c r="D98" s="1">
+      <c r="E98" s="1">
         <v>0.55735474014462294</v>
       </c>
-      <c r="E98" s="1">
+      <c r="F98" s="1">
         <v>0.48317731302441091</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A99" s="1">
+    <row r="99" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="1">
         <v>0.68300000000000005</v>
       </c>
-      <c r="B99" s="1">
+      <c r="C99" s="1">
         <v>0.53500000000000003</v>
       </c>
-      <c r="C99" s="1">
+      <c r="D99" s="1">
         <v>0.70465318467659732</v>
       </c>
-      <c r="D99" s="1">
+      <c r="E99" s="1">
         <v>0.55865801733624176</v>
       </c>
-      <c r="E99" s="1">
+      <c r="F99" s="1">
         <v>0.38861983068070133</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A100" s="1">
+    <row r="100" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A100" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="1">
         <v>0.73</v>
       </c>
-      <c r="B100" s="1">
+      <c r="C100" s="1">
         <v>0.53200000000000003</v>
       </c>
-      <c r="C100" s="1">
+      <c r="D100" s="1">
         <v>0.68848678441266364</v>
       </c>
-      <c r="D100" s="1">
+      <c r="E100" s="1">
         <v>0.56162585576649249</v>
       </c>
-      <c r="E100" s="1">
+      <c r="F100" s="1">
         <v>0.38986916259732957</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A101" s="1">
+    <row r="101" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A101" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="1">
         <v>0.73099999999999998</v>
       </c>
-      <c r="B101" s="1">
+      <c r="C101" s="1">
         <v>0.51900000000000002</v>
       </c>
-      <c r="C101" s="1">
+      <c r="D101" s="1">
         <v>0.69016855866870097</v>
       </c>
-      <c r="D101" s="1">
+      <c r="E101" s="1">
         <v>0.44269810035015089</v>
       </c>
-      <c r="E101" s="1">
+      <c r="F101" s="1">
         <v>0.45702744372265142</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A102" s="1">
+    <row r="102" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A102" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="1">
         <v>0.66700000000000004</v>
       </c>
-      <c r="B102" s="1">
+      <c r="C102" s="1">
         <v>0.51600000000000001</v>
       </c>
-      <c r="C102" s="1">
+      <c r="D102" s="1">
         <v>0.74650232231948599</v>
       </c>
-      <c r="D102" s="1">
+      <c r="E102" s="1">
         <v>0.43725304124819775</v>
       </c>
-      <c r="E102" s="1">
+      <c r="F102" s="1">
         <v>0.42188052536273418</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A103" s="1">
+    <row r="103" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A103" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="1">
         <v>0.624</v>
       </c>
-      <c r="B103" s="1">
+      <c r="C103" s="1">
         <v>0.51600000000000001</v>
       </c>
-      <c r="C103" s="1">
+      <c r="D103" s="1">
         <v>0.56558586077482942</v>
       </c>
-      <c r="D103" s="1">
+      <c r="E103" s="1">
         <v>0.53674262554940033</v>
       </c>
-      <c r="E103" s="1">
+      <c r="F103" s="1">
         <v>0.45125603598761316</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A104" s="1">
+    <row r="104" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A104" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="1">
         <v>0.68300000000000005</v>
       </c>
-      <c r="B104" s="1">
+      <c r="C104" s="1">
         <v>0.504</v>
       </c>
-      <c r="C104" s="1">
+      <c r="D104" s="1">
         <v>0.74063489507350033</v>
       </c>
-      <c r="D104" s="1">
+      <c r="E104" s="1">
         <v>0.34314090302382177</v>
       </c>
-      <c r="E104" s="1">
+      <c r="F104" s="1">
         <v>0.50229871529430792</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A105" s="1">
+    <row r="105" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A105" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="1">
         <v>0.66100000000000003</v>
       </c>
-      <c r="B105" s="1">
+      <c r="C105" s="1">
         <v>0.503</v>
       </c>
-      <c r="C105" s="1">
+      <c r="D105" s="1">
         <v>0.68060577888593887</v>
       </c>
-      <c r="D105" s="1">
+      <c r="E105" s="1">
         <v>0.37085054538131679</v>
       </c>
-      <c r="E105" s="1">
+      <c r="F105" s="1">
         <v>0.50446785956192808</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A106" s="1">
+    <row r="106" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A106" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="1">
         <v>0.61799999999999999</v>
       </c>
-      <c r="B106" s="1">
+      <c r="C106" s="1">
         <v>0.503</v>
       </c>
-      <c r="C106" s="1">
+      <c r="D106" s="1">
         <v>0.65625766613442715</v>
       </c>
-      <c r="D106" s="1">
+      <c r="E106" s="1">
         <v>0.47029492835768288</v>
       </c>
-      <c r="E106" s="1">
+      <c r="F106" s="1">
         <v>0.4117763086971119</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A107" s="1">
+    <row r="107" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A107" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="1">
         <v>0.621</v>
       </c>
-      <c r="B107" s="1">
+      <c r="C107" s="1">
         <v>0.47899999999999998</v>
       </c>
-      <c r="C107" s="1">
+      <c r="D107" s="1">
         <v>0.69298112797319389</v>
       </c>
-      <c r="D107" s="1">
+      <c r="E107" s="1">
         <v>0.40585194727859525</v>
       </c>
-      <c r="E107" s="1">
+      <c r="F107" s="1">
         <v>0.39032064820372386</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A108" s="1">
+    <row r="108" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A108" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="1">
         <v>0.59299999999999997</v>
       </c>
-      <c r="B108" s="1">
+      <c r="C108" s="1">
         <v>0.47899999999999998</v>
       </c>
-      <c r="C108" s="1">
+      <c r="D108" s="1">
         <v>0.64560342583633157</v>
       </c>
-      <c r="D108" s="1">
+      <c r="E108" s="1">
         <v>0.35485975927722219</v>
       </c>
-      <c r="E108" s="1">
+      <c r="F108" s="1">
         <v>0.47982932331805273</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A109" s="1">
+    <row r="109" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A109" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="1">
         <v>0.63300000000000001</v>
       </c>
-      <c r="B109" s="1">
+      <c r="C109" s="1">
         <v>0.47499999999999998</v>
       </c>
-      <c r="C109" s="1">
+      <c r="D109" s="1">
         <v>0.60367594470820984</v>
       </c>
-      <c r="D109" s="1">
+      <c r="E109" s="1">
         <v>0.34824873290213165</v>
       </c>
-      <c r="E109" s="1">
+      <c r="F109" s="1">
         <v>0.51010545637072091</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A110" s="1">
+    <row r="110" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A110" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="1">
         <v>0.71299999999999997</v>
       </c>
-      <c r="B110" s="1">
+      <c r="C110" s="1">
         <v>0.47099999999999997</v>
       </c>
-      <c r="C110" s="1">
+      <c r="D110" s="1">
         <v>0.52852478474477993</v>
       </c>
-      <c r="D110" s="1">
+      <c r="E110" s="1">
         <v>0.62699096217347161</v>
       </c>
-      <c r="E110" s="1">
+      <c r="F110" s="1">
         <v>0.31593658209203102</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A111" s="1">
+    <row r="111" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A111" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="1">
         <v>0.66600000000000004</v>
       </c>
-      <c r="B111" s="1">
+      <c r="C111" s="1">
         <v>0.47099999999999997</v>
       </c>
-      <c r="C111" s="1">
+      <c r="D111" s="1">
         <v>0.67819905275456915</v>
       </c>
-      <c r="D111" s="1">
+      <c r="E111" s="1">
         <v>0.27942289203181775</v>
       </c>
-      <c r="E111" s="1">
+      <c r="F111" s="1">
         <v>0.54982237123873978</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A112" s="1">
+    <row r="112" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A112" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="1">
         <v>0.627</v>
       </c>
-      <c r="B112" s="1">
+      <c r="C112" s="1">
         <v>0.46</v>
       </c>
-      <c r="C112" s="1">
+      <c r="D112" s="1">
         <v>0.65246629805589906</v>
       </c>
-      <c r="D112" s="1">
+      <c r="E112" s="1">
         <v>0.31402333512277625</v>
       </c>
-      <c r="E112" s="1">
+      <c r="F112" s="1">
         <v>0.47547336257781425</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A113" s="1">
+    <row r="113" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A113" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="1">
         <v>0.60699999999999998</v>
       </c>
-      <c r="B113" s="1">
+      <c r="C113" s="1">
         <v>0.45900000000000002</v>
       </c>
-      <c r="C113" s="1">
+      <c r="D113" s="1">
         <v>0.58686554929788559</v>
       </c>
-      <c r="D113" s="1">
+      <c r="E113" s="1">
         <v>0.31641263147439785</v>
       </c>
-      <c r="E113" s="1">
+      <c r="F113" s="1">
         <v>0.52109118984792446</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A114" s="1">
+    <row r="114" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A114" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="1">
         <v>0.63200000000000001</v>
       </c>
-      <c r="B114" s="1">
+      <c r="C114" s="1">
         <v>0.45800000000000002</v>
       </c>
-      <c r="C114" s="1">
+      <c r="D114" s="1">
         <v>0.52048013695773454</v>
       </c>
-      <c r="D114" s="1">
+      <c r="E114" s="1">
         <v>0.39738769097694349</v>
       </c>
-      <c r="E114" s="1">
+      <c r="F114" s="1">
         <v>0.46417277660361284</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A115" s="1">
+    <row r="115" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A115" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="1">
         <v>0.59299999999999997</v>
       </c>
-      <c r="B115" s="1">
+      <c r="C115" s="1">
         <v>0.45800000000000002</v>
       </c>
-      <c r="C115" s="1">
+      <c r="D115" s="1">
         <v>0.45872676736130047</v>
       </c>
-      <c r="D115" s="1">
+      <c r="E115" s="1">
         <v>0.53523810055013799</v>
       </c>
-      <c r="E115" s="1">
+      <c r="F115" s="1">
         <v>0.39167838381333864</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A116" s="1">
+    <row r="116" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A116" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="1">
         <v>0.60199999999999998</v>
       </c>
-      <c r="B116" s="1">
+      <c r="C116" s="1">
         <v>0.44900000000000001</v>
       </c>
-      <c r="C116" s="1">
+      <c r="D116" s="1">
         <v>0.6295314382612538</v>
       </c>
-      <c r="D116" s="1">
+      <c r="E116" s="1">
         <v>0.31140690705311791</v>
       </c>
-      <c r="E116" s="1">
+      <c r="F116" s="1">
         <v>0.46236973405313253</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A117" s="1">
+    <row r="117" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A117" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="1">
         <v>0.60699999999999998</v>
       </c>
-      <c r="B117" s="1">
+      <c r="C117" s="1">
         <v>0.44</v>
       </c>
-      <c r="C117" s="1">
+      <c r="D117" s="1">
         <v>0.58585307869344605</v>
       </c>
-      <c r="D117" s="1">
+      <c r="E117" s="1">
         <v>0.29288941419435</v>
       </c>
-      <c r="E117" s="1">
+      <c r="F117" s="1">
         <v>0.49574785717959358</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A118" s="1">
+    <row r="118" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A118" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="1">
         <v>0.57099999999999995</v>
       </c>
-      <c r="B118" s="1">
+      <c r="C118" s="1">
         <v>0.432</v>
       </c>
-      <c r="C118" s="1">
+      <c r="D118" s="1">
         <v>0.52900767242289903</v>
       </c>
-      <c r="D118" s="1">
+      <c r="E118" s="1">
         <v>0.43333569632361124</v>
       </c>
-      <c r="E118" s="1">
+      <c r="F118" s="1">
         <v>0.35058597866051805</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A119" s="1">
+    <row r="119" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A119" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="1">
         <v>0.57499999999999996</v>
       </c>
-      <c r="B119" s="1">
+      <c r="C119" s="1">
         <v>0.42599999999999999</v>
       </c>
-      <c r="C119" s="1">
+      <c r="D119" s="1">
         <v>0.50342394862956463</v>
       </c>
-      <c r="D119" s="1">
+      <c r="E119" s="1">
         <v>0.40010710541066885</v>
       </c>
-      <c r="E119" s="1">
+      <c r="F119" s="1">
         <v>0.38381510013270181</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A120" s="1">
+    <row r="120" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A120" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="1">
         <v>0.59699999999999998</v>
       </c>
-      <c r="B120" s="1">
+      <c r="C120" s="1">
         <v>0.42399999999999999</v>
       </c>
-      <c r="C120" s="1">
+      <c r="D120" s="1">
         <v>0.43452800482286785</v>
       </c>
-      <c r="D120" s="1">
+      <c r="E120" s="1">
         <v>0.4313182002079492</v>
       </c>
-      <c r="E120" s="1">
+      <c r="F120" s="1">
         <v>0.40721214505114711</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A121" s="1">
+    <row r="121" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A121" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="1">
         <v>0.54900000000000004</v>
       </c>
-      <c r="B121" s="1">
+      <c r="C121" s="1">
         <v>0.41799999999999998</v>
       </c>
-      <c r="C121" s="1">
+      <c r="D121" s="1">
         <v>0.55642738409482007</v>
       </c>
-      <c r="D121" s="1">
+      <c r="E121" s="1">
         <v>0.3422520155284538</v>
       </c>
-      <c r="E121" s="1">
+      <c r="F121" s="1">
         <v>0.38477656087050416</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A122" s="1">
+    <row r="122" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A122" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="1">
         <v>0.58599999999999997</v>
       </c>
-      <c r="B122" s="1">
+      <c r="C122" s="1">
         <v>0.40699999999999997</v>
       </c>
-      <c r="C122" s="1">
+      <c r="D122" s="1">
         <v>0.4600779957047415</v>
       </c>
-      <c r="D122" s="1">
+      <c r="E122" s="1">
         <v>0.34144851649399055</v>
       </c>
-      <c r="E122" s="1">
+      <c r="F122" s="1">
         <v>0.42985360042007509</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A123" s="1">
+    <row r="123" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A123" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="1">
         <v>0.61499999999999999</v>
       </c>
-      <c r="B123" s="1">
+      <c r="C123" s="1">
         <v>0.40200000000000002</v>
       </c>
-      <c r="C123" s="1">
+      <c r="D123" s="1">
         <v>0.48381151386523996</v>
       </c>
-      <c r="D123" s="1">
+      <c r="E123" s="1">
         <v>0.42819432666108409</v>
       </c>
-      <c r="E123" s="1">
+      <c r="F123" s="1">
         <v>0.31257421608710867</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A124" s="1">
+    <row r="124" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A124" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="1">
         <v>0.53400000000000003</v>
       </c>
-      <c r="B124" s="1">
+      <c r="C124" s="1">
         <v>0.40200000000000002</v>
       </c>
-      <c r="C124" s="1">
+      <c r="D124" s="1">
         <v>0.57135641717147723</v>
       </c>
-      <c r="D124" s="1">
+      <c r="E124" s="1">
         <v>0.33377137669279694</v>
       </c>
-      <c r="E124" s="1">
+      <c r="F124" s="1">
         <v>0.3404412221986563</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A125" s="1">
+    <row r="125" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A125" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="1">
         <v>0.55800000000000005</v>
       </c>
-      <c r="B125" s="1">
+      <c r="C125" s="1">
         <v>0.39700000000000002</v>
       </c>
-      <c r="C125" s="1">
+      <c r="D125" s="1">
         <v>0.55204227615628587</v>
       </c>
-      <c r="D125" s="1">
+      <c r="E125" s="1">
         <v>0.28686268267408066</v>
       </c>
-      <c r="E125" s="1">
+      <c r="F125" s="1">
         <v>0.39642304536190437</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A126" s="1">
+    <row r="126" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A126" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="1">
         <v>0.52500000000000002</v>
       </c>
-      <c r="B126" s="1">
+      <c r="C126" s="1">
         <v>0.39600000000000002</v>
       </c>
-      <c r="C126" s="1">
+      <c r="D126" s="1">
         <v>0.52294263623327997</v>
       </c>
-      <c r="D126" s="1">
+      <c r="E126" s="1">
         <v>0.34094495519636669</v>
       </c>
-      <c r="E126" s="1">
+      <c r="F126" s="1">
         <v>0.3495073296997312</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A127" s="1">
+    <row r="127" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A127" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="1">
         <v>0.57599999999999996</v>
       </c>
-      <c r="B127" s="1">
+      <c r="C127" s="1">
         <v>0.39300000000000002</v>
       </c>
-      <c r="C127" s="1">
+      <c r="D127" s="1">
         <v>0.44376845030753775</v>
       </c>
-      <c r="D127" s="1">
+      <c r="E127" s="1">
         <v>0.38864737953249229</v>
       </c>
-      <c r="E127" s="1">
+      <c r="F127" s="1">
         <v>0.35248049844689705</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A128" s="1">
+    <row r="128" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A128" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="1">
         <v>0.56499999999999995</v>
       </c>
-      <c r="B128" s="1">
+      <c r="C128" s="1">
         <v>0.39</v>
       </c>
-      <c r="C128" s="1">
+      <c r="D128" s="1">
         <v>0.47531852563412036</v>
       </c>
-      <c r="D128" s="1">
+      <c r="E128" s="1">
         <v>0.43215051372732777</v>
       </c>
-      <c r="E128" s="1">
+      <c r="F128" s="1">
         <v>0.28923343746616098</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A129" s="1">
+    <row r="129" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A129" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="1">
         <v>0.55600000000000005</v>
       </c>
-      <c r="B129" s="1">
+      <c r="C129" s="1">
         <v>0.38900000000000001</v>
       </c>
-      <c r="C129" s="1">
+      <c r="D129" s="1">
         <v>0.50684895406466224</v>
       </c>
-      <c r="D129" s="1">
+      <c r="E129" s="1">
         <v>0.23772470393749795</v>
       </c>
-      <c r="E129" s="1">
+      <c r="F129" s="1">
         <v>0.49033295235765451</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A130" s="1">
+    <row r="130" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A130" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="1">
         <v>0.54400000000000004</v>
       </c>
-      <c r="B130" s="1">
+      <c r="C130" s="1">
         <v>0.38</v>
       </c>
-      <c r="C130" s="1">
+      <c r="D130" s="1">
         <v>0.51845620441527784</v>
       </c>
-      <c r="D130" s="1">
+      <c r="E130" s="1">
         <v>0.22121272617027005</v>
       </c>
-      <c r="E130" s="1">
+      <c r="F130" s="1">
         <v>0.47930912211070104</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A131" s="1">
+    <row r="131" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A131" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="1">
         <v>0.51200000000000001</v>
       </c>
-      <c r="B131" s="1">
+      <c r="C131" s="1">
         <v>0.377</v>
       </c>
-      <c r="C131" s="1">
+      <c r="D131" s="1">
         <v>0.53018615962098781</v>
       </c>
-      <c r="D131" s="1">
+      <c r="E131" s="1">
         <v>0.36129570856501425</v>
       </c>
-      <c r="E131" s="1">
+      <c r="F131" s="1">
         <v>0.27871702622226208</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A132" s="1">
+    <row r="132" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A132" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="1">
         <v>0.53900000000000003</v>
       </c>
-      <c r="B132" s="1">
+      <c r="C132" s="1">
         <v>0.372</v>
       </c>
-      <c r="C132" s="1">
+      <c r="D132" s="1">
         <v>0.46267810655571467</v>
       </c>
-      <c r="D132" s="1">
+      <c r="E132" s="1">
         <v>0.32815209797856659</v>
       </c>
-      <c r="E132" s="1">
+      <c r="F132" s="1">
         <v>0.33984715678915578</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A133" s="1">
+    <row r="133" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A133" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="1">
         <v>0.51400000000000001</v>
       </c>
-      <c r="B133" s="1">
+      <c r="C133" s="1">
         <v>0.372</v>
       </c>
-      <c r="C133" s="1">
+      <c r="D133" s="1">
         <v>0.34054300843621538</v>
       </c>
-      <c r="D133" s="1">
+      <c r="E133" s="1">
         <v>0.43021521818019781</v>
       </c>
-      <c r="E133" s="1">
+      <c r="F133" s="1">
         <v>0.35062341979172124</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A134" s="1">
+    <row r="134" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A134" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="1">
         <v>0.501</v>
       </c>
-      <c r="B134" s="1">
+      <c r="C134" s="1">
         <v>0.36699999999999999</v>
       </c>
-      <c r="C134" s="1">
+      <c r="D134" s="1">
         <v>0.52249628780307877</v>
       </c>
-      <c r="D134" s="1">
+      <c r="E134" s="1">
         <v>0.31950514296383947</v>
       </c>
-      <c r="E134" s="1">
+      <c r="F134" s="1">
         <v>0.29513120332425319</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A135" s="1">
+    <row r="135" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="1">
         <v>0.498</v>
       </c>
-      <c r="B135" s="1">
+      <c r="C135" s="1">
         <v>0.36299999999999999</v>
       </c>
-      <c r="C135" s="1">
+      <c r="D135" s="1">
         <v>0.53188166808201598</v>
       </c>
-      <c r="D135" s="1">
+      <c r="E135" s="1">
         <v>0.21449822063042784</v>
       </c>
-      <c r="E135" s="1">
+      <c r="F135" s="1">
         <v>0.41991962386005433</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A136" s="1">
+    <row r="136" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A136" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B136" s="1">
+      <c r="C136" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="C136" s="1">
+      <c r="D136" s="1">
         <v>0.41355137621770199</v>
       </c>
-      <c r="D136" s="1">
+      <c r="E136" s="1">
         <v>0.25555512166765459</v>
       </c>
-      <c r="E136" s="1">
+      <c r="F136" s="1">
         <v>0.43582813184313485</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A137" s="1">
+    <row r="137" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A137" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="1">
         <v>0.51100000000000001</v>
       </c>
-      <c r="B137" s="1">
+      <c r="C137" s="1">
         <v>0.35399999999999998</v>
       </c>
-      <c r="C137" s="1">
+      <c r="D137" s="1">
         <v>0.59316266784416527</v>
       </c>
-      <c r="D137" s="1">
+      <c r="E137" s="1">
         <v>0.18340050504212649</v>
       </c>
-      <c r="E137" s="1">
+      <c r="F137" s="1">
         <v>0.4062045165858777</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A138" s="1">
+    <row r="138" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A138" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="1">
         <v>0.5</v>
       </c>
-      <c r="B138" s="1">
+      <c r="C138" s="1">
         <v>0.34799999999999998</v>
       </c>
-      <c r="C138" s="1">
+      <c r="D138" s="1">
         <v>0.49627355079117691</v>
       </c>
-      <c r="D138" s="1">
+      <c r="E138" s="1">
         <v>0.22059184555723346</v>
       </c>
-      <c r="E138" s="1">
+      <c r="F138" s="1">
         <v>0.38377662500777904</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A139" s="1">
+    <row r="139" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A139" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="1">
         <v>0.53500000000000003</v>
       </c>
-      <c r="B139" s="1">
+      <c r="C139" s="1">
         <v>0.34100000000000003</v>
       </c>
-      <c r="C139" s="1">
+      <c r="D139" s="1">
         <v>0.3036028149451015</v>
       </c>
-      <c r="D139" s="1">
+      <c r="E139" s="1">
         <v>0.31025331595458489</v>
       </c>
-      <c r="E139" s="1">
+      <c r="F139" s="1">
         <v>0.42050984201910291</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A140" s="1">
+    <row r="140" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A140" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="1">
         <v>0.47899999999999998</v>
       </c>
-      <c r="B140" s="1">
+      <c r="C140" s="1">
         <v>0.34100000000000003</v>
       </c>
-      <c r="C140" s="1">
+      <c r="D140" s="1">
         <v>0.41206889723312917</v>
       </c>
-      <c r="D140" s="1">
+      <c r="E140" s="1">
         <v>0.37104079337385815</v>
       </c>
-      <c r="E140" s="1">
+      <c r="F140" s="1">
         <v>0.25972514384114259</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A141" s="1">
+    <row r="141" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A141" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="1">
         <v>0.50800000000000001</v>
       </c>
-      <c r="B141" s="1">
+      <c r="C141" s="1">
         <v>0.33600000000000002</v>
       </c>
-      <c r="C141" s="1">
+      <c r="D141" s="1">
         <v>0.52239344664614629</v>
       </c>
-      <c r="D141" s="1">
+      <c r="E141" s="1">
         <v>0.20029225836068051</v>
       </c>
-      <c r="E141" s="1">
+      <c r="F141" s="1">
         <v>0.36197854169098231</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A142" s="1">
+    <row r="142" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A142" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="1">
         <v>0.52500000000000002</v>
       </c>
-      <c r="B142" s="1">
+      <c r="C142" s="1">
         <v>0.33400000000000002</v>
       </c>
-      <c r="C142" s="1">
+      <c r="D142" s="1">
         <v>0.41253497429167535</v>
       </c>
-      <c r="D142" s="1">
+      <c r="E142" s="1">
         <v>0.24919394634548231</v>
       </c>
-      <c r="E142" s="1">
+      <c r="F142" s="1">
         <v>0.36262753300939332</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A143" s="1">
+    <row r="143" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A143" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="1">
         <v>0.48099999999999998</v>
       </c>
-      <c r="B143" s="1">
+      <c r="C143" s="1">
         <v>0.33</v>
       </c>
-      <c r="C143" s="1">
+      <c r="D143" s="1">
         <v>0.43802564442768005</v>
       </c>
-      <c r="D143" s="1">
+      <c r="E143" s="1">
         <v>0.26559332975953065</v>
       </c>
-      <c r="E143" s="1">
+      <c r="F143" s="1">
         <v>0.30989087671845872</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A144" s="1">
+    <row r="144" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A144" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="1">
         <v>0.53500000000000003</v>
       </c>
-      <c r="B144" s="1">
+      <c r="C144" s="1">
         <v>0.32700000000000001</v>
       </c>
-      <c r="C144" s="1">
+      <c r="D144" s="1">
         <v>0.48785878867548976</v>
       </c>
-      <c r="D144" s="1">
+      <c r="E144" s="1">
         <v>0.28485311841777777</v>
       </c>
-      <c r="E144" s="1">
+      <c r="F144" s="1">
         <v>0.25072565787998208</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A145" s="1">
+    <row r="145" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A145" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" s="1">
         <v>0.44900000000000001</v>
       </c>
-      <c r="B145" s="1">
+      <c r="C145" s="1">
         <v>0.315</v>
       </c>
-      <c r="C145" s="1">
+      <c r="D145" s="1">
         <v>0.41467858342191755</v>
       </c>
-      <c r="D145" s="1">
+      <c r="E145" s="1">
         <v>0.19741630944463281</v>
       </c>
-      <c r="E145" s="1">
+      <c r="F145" s="1">
         <v>0.38133827770500228</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A146" s="1">
+    <row r="146" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A146" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="1">
         <v>0.55800000000000005</v>
       </c>
-      <c r="B146" s="1">
+      <c r="C146" s="1">
         <v>0.31</v>
       </c>
-      <c r="C146" s="1">
+      <c r="D146" s="1">
         <v>0.49710073756503598</v>
       </c>
-      <c r="D146" s="1">
+      <c r="E146" s="1">
         <v>0.26220025391853963</v>
       </c>
-      <c r="E146" s="1">
+      <c r="F146" s="1">
         <v>0.2290644377078998</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A147" s="1">
+    <row r="147" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A147" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="1">
         <v>0.47699999999999998</v>
       </c>
-      <c r="B147" s="1">
+      <c r="C147" s="1">
         <v>0.309</v>
       </c>
-      <c r="C147" s="1">
+      <c r="D147" s="1">
         <v>0.39990096878197406</v>
       </c>
-      <c r="D147" s="1">
+      <c r="E147" s="1">
         <v>0.21968128228607037</v>
       </c>
-      <c r="E147" s="1">
+      <c r="F147" s="1">
         <v>0.33727361084019958</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A148" s="1">
+    <row r="148" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A148" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="1">
         <v>0.45500000000000002</v>
       </c>
-      <c r="B148" s="1">
+      <c r="C148" s="1">
         <v>0.307</v>
       </c>
-      <c r="C148" s="1">
+      <c r="D148" s="1">
         <v>0.49347391138666369</v>
       </c>
-      <c r="D148" s="1">
+      <c r="E148" s="1">
         <v>0.19358592494451138</v>
       </c>
-      <c r="E148" s="1">
+      <c r="F148" s="1">
         <v>0.30426317500732708</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A149" s="1">
+    <row r="149" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A149" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="1">
         <v>0.48299999999999998</v>
       </c>
-      <c r="B149" s="1">
+      <c r="C149" s="1">
         <v>0.30599999999999999</v>
       </c>
-      <c r="C149" s="1">
+      <c r="D149" s="1">
         <v>0.42996255884691009</v>
       </c>
-      <c r="D149" s="1">
+      <c r="E149" s="1">
         <v>0.2399128917704213</v>
       </c>
-      <c r="E149" s="1">
+      <c r="F149" s="1">
         <v>0.27661091081621525</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A150" s="1">
+    <row r="150" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A150" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="1">
         <v>0.42599999999999999</v>
       </c>
-      <c r="B150" s="1">
+      <c r="C150" s="1">
         <v>0.30199999999999999</v>
       </c>
-      <c r="C150" s="1">
+      <c r="D150" s="1">
         <v>0.47683653282725436</v>
       </c>
-      <c r="D150" s="1">
+      <c r="E150" s="1">
         <v>0.24335559550270663</v>
       </c>
-      <c r="E150" s="1">
+      <c r="F150" s="1">
         <v>0.23772524008256807</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A151" s="1">
+    <row r="151" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A151" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" s="1">
         <v>0.44600000000000001</v>
       </c>
-      <c r="B151" s="1">
+      <c r="C151" s="1">
         <v>0.3</v>
       </c>
-      <c r="C151" s="1">
+      <c r="D151" s="1">
         <v>0.43378594189029979</v>
       </c>
-      <c r="D151" s="1">
+      <c r="E151" s="1">
         <v>0.23219704055383128</v>
       </c>
-      <c r="E151" s="1">
+      <c r="F151" s="1">
         <v>0.26860406907069595</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A152" s="1">
+    <row r="152" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A152" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="1">
         <v>0.46500000000000002</v>
       </c>
-      <c r="B152" s="1">
+      <c r="C152" s="1">
         <v>0.29899999999999999</v>
       </c>
-      <c r="C152" s="1">
+      <c r="D152" s="1">
         <v>0.38860210878296059</v>
       </c>
-      <c r="D152" s="1">
+      <c r="E152" s="1">
         <v>0.17245764663314878</v>
       </c>
-      <c r="E152" s="1">
+      <c r="F152" s="1">
         <v>0.39854462861284784</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A153" s="1">
+    <row r="153" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A153" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="1">
         <v>0.4</v>
       </c>
-      <c r="B153" s="1">
+      <c r="C153" s="1">
         <v>0.29199999999999998</v>
       </c>
-      <c r="C153" s="1">
+      <c r="D153" s="1">
         <v>0.45584849944242606</v>
       </c>
-      <c r="D153" s="1">
+      <c r="E153" s="1">
         <v>0.17156951225208472</v>
       </c>
-      <c r="E153" s="1">
+      <c r="F153" s="1">
         <v>0.31779876550126823</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A154" s="1">
+    <row r="154" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A154" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="1">
         <v>0.42799999999999999</v>
       </c>
-      <c r="B154" s="1">
+      <c r="C154" s="1">
         <v>0.29099999999999998</v>
       </c>
-      <c r="C154" s="1">
+      <c r="D154" s="1">
         <v>0.40253216838964406</v>
       </c>
-      <c r="D154" s="1">
+      <c r="E154" s="1">
         <v>0.15898693891154053</v>
       </c>
-      <c r="E154" s="1">
+      <c r="F154" s="1">
         <v>0.38566050360880372</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A155" s="1">
+    <row r="155" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A155" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="1">
         <v>0.39400000000000002</v>
       </c>
-      <c r="B155" s="1">
+      <c r="C155" s="1">
         <v>0.251</v>
       </c>
-      <c r="C155" s="1">
+      <c r="D155" s="1">
         <v>0.30744584646184892</v>
       </c>
-      <c r="D155" s="1">
+      <c r="E155" s="1">
         <v>0.17634436754255572</v>
       </c>
-      <c r="E155" s="1">
+      <c r="F155" s="1">
         <v>0.2901167234547618</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A156" s="1">
+    <row r="156" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A156" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="1">
         <v>0.38500000000000001</v>
       </c>
-      <c r="B156" s="1">
+      <c r="C156" s="1">
         <v>0.245</v>
       </c>
-      <c r="C156" s="1">
+      <c r="D156" s="1">
         <v>0.33912981340713594</v>
       </c>
-      <c r="D156" s="1">
+      <c r="E156" s="1">
         <v>0.20844090869636464</v>
       </c>
-      <c r="E156" s="1">
+      <c r="F156" s="1">
         <v>0.20859534913577513</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A157" s="1">
+    <row r="157" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A157" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" s="1">
         <v>0.40400000000000003</v>
       </c>
-      <c r="B157" s="1">
+      <c r="C157" s="1">
         <v>0.24</v>
       </c>
-      <c r="C157" s="1">
+      <c r="D157" s="1">
         <v>0.33359163515773521</v>
       </c>
-      <c r="D157" s="1">
+      <c r="E157" s="1">
         <v>0.23834539865455143</v>
       </c>
-      <c r="E157" s="1">
+      <c r="F157" s="1">
         <v>0.17406065769108039</v>
       </c>
     </row>
@@ -3120,6 +4065,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7f64e6aa-b736-4f26-84cc-faf427629e48">
+      <UserInfo>
+        <DisplayName>Cecilia Calderon</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AD45DB714643E4A8A8C58D3ECEF2B52" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0377062c7993f79e0ee2fe840fd08d8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b0611ad7-5071-45af-a141-b2a079deb018" xmlns:ns3="7f64e6aa-b736-4f26-84cc-faf427629e48" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2869b255174fce0a927e36b6c0c9136f" ns2:_="" ns3:_="">
     <xsd:import namespace="b0611ad7-5071-45af-a141-b2a079deb018"/>
@@ -3298,30 +4266,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7f64e6aa-b736-4f26-84cc-faf427629e48">
-      <UserInfo>
-        <DisplayName>Cecilia Calderon</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BAEA50D-A77A-4BD1-A57D-FE81CA4DEB01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7DA61EB-8D48-4617-94E1-454D1449F940}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f64e6aa-b736-4f26-84cc-faf427629e48"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E66ED643-5F43-47CB-8288-3F0E93434226}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3338,22 +4301,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7DA61EB-8D48-4617-94E1-454D1449F940}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7f64e6aa-b736-4f26-84cc-faf427629e48"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BAEA50D-A77A-4BD1-A57D-FE81CA4DEB01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>